--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-MO-milieuenonderzoek.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-MO-milieuenonderzoek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9C0C3537-E06B-441F-B858-A6360F3DB134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E1F797F9-09B3-44F6-AA58-770B4BB1F52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{816B81A7-0DEA-4A71-ABC5-F01EDE9A63B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{37AD7D3A-490F-417A-9177-EEB97C441530}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-MO-milieue" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="225">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -217,6 +217,18 @@
     <t>GRONDWATER_VERVUILING</t>
   </si>
   <si>
+    <t>GRONDWATER_CONTOUR</t>
+  </si>
+  <si>
+    <t>MO-BORDER-SO</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>V-MO-BORDER-SO</t>
+  </si>
+  <si>
     <t>GRONDWATER_ONDERZOEK</t>
   </si>
   <si>
@@ -250,6 +262,9 @@
     <t>SCHADE_GRONDKERING</t>
   </si>
   <si>
+    <t>LUCHT_CONTOUR</t>
+  </si>
+  <si>
     <t>ARCHEOLOGIE_VONDST</t>
   </si>
   <si>
@@ -313,18 +328,12 @@
     <t>GEUR_CONTOUR</t>
   </si>
   <si>
-    <t>MO-BORDER-SO</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>V-MO-BORDER-SO</t>
-  </si>
-  <si>
     <t>GELUID_CONTOUR</t>
   </si>
   <si>
+    <t>TRILLING_CONTOUR</t>
+  </si>
+  <si>
     <t>BODEM_VERVUILING</t>
   </si>
   <si>
@@ -334,6 +343,12 @@
     <t>WATERBODEM_VERVUILING</t>
   </si>
   <si>
+    <t>LICHT_CONTOUR</t>
+  </si>
+  <si>
+    <t>STRALING_CONTOUR</t>
+  </si>
+  <si>
     <t>GRONDWATER_VERVUILING_GROTER INTERVENTIEWAARDE</t>
   </si>
   <si>
@@ -346,12 +361,66 @@
     <t>GRONDWATER_VERVUILING_KLEINER ACHTERGRONDWAARDE</t>
   </si>
   <si>
+    <t>GRONDWATER_CONTOUR_INTERVENTIEWAARDE</t>
+  </si>
+  <si>
+    <t>MO-GRONDWATERINTERVENTIEWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-GRONDWATERINTERVENTIEWAARDE-SO</t>
+  </si>
+  <si>
+    <t>GRONDWATER_CONTOUR_TUSSENWAARDE</t>
+  </si>
+  <si>
+    <t>MO-GRONDWATERTUSSENWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-GRONDWATERTUSSENWAARDE-SO</t>
+  </si>
+  <si>
+    <t>GRONDWATER_CONTOUR_STREEFWAARDE</t>
+  </si>
+  <si>
+    <t>MO-GRONDWATERSTREEFWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-GRONDWATERSTREEFWAARDE-SO</t>
+  </si>
+  <si>
     <t>GRONDWATER_ONDERZOEK_PEILBUIS</t>
   </si>
   <si>
     <t>SCHADE_VERHARDING_SLIJTLAAG</t>
   </si>
   <si>
+    <t>LUCHT_CONTOUR_STREEFWAARDE</t>
+  </si>
+  <si>
+    <t>MO-LUCHTSTREEFWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-LUCHTSTREEFWAARDE-SO</t>
+  </si>
+  <si>
+    <t>LUCHT_CONTOUR_INTERVENTIEWAARDE</t>
+  </si>
+  <si>
+    <t>MO-LUCHTINTERVENTIEWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-LUCHTINTERVENTIEWAARDE-SO</t>
+  </si>
+  <si>
+    <t>LUCHT_CONTOUR_TUSSENWAARDE</t>
+  </si>
+  <si>
+    <t>MO-LUCHTTUSSENWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-LUCHTTUSSENWAARDE-SO</t>
+  </si>
+  <si>
     <t>ARCHEOLOGIE_VONDST_WAARDEVOLLE LIJN</t>
   </si>
   <si>
@@ -412,6 +481,33 @@
     <t>V-MO-GELUIDSTREEFWAARDE-SO</t>
   </si>
   <si>
+    <t>TRILLING_CONTOUR_STREEFWAARDE</t>
+  </si>
+  <si>
+    <t>MO-TRILLINGSTREEFWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-TRILLINGSTREEFWAARDE-SO</t>
+  </si>
+  <si>
+    <t>TRILLING_CONTOUR_INTERVENTIEWAARDE</t>
+  </si>
+  <si>
+    <t>MO-TRILLINGINTERVENTIEWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-TRILLINGINTERVENTIEWAARDE-SO</t>
+  </si>
+  <si>
+    <t>TRILLING_CONTOUR_TUSSENWAARDE</t>
+  </si>
+  <si>
+    <t>MO-TRILLINGTUSSENWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-TRILLINGTUSSENWAARDE-SO</t>
+  </si>
+  <si>
     <t>BODEM_VERVUILING_GROTER ACHTERGRONDWAARDE</t>
   </si>
   <si>
@@ -463,6 +559,60 @@
     <t>WATERBODEM_VERVUILING_NIET TOEPASBAAR</t>
   </si>
   <si>
+    <t>LICHT_CONTOUR_STREEFWAARDE</t>
+  </si>
+  <si>
+    <t>MO-LICHTSTREEFWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-LICHTSTREEFWAARDE-SO</t>
+  </si>
+  <si>
+    <t>LICHT_CONTOUR_TUSSENWAARDE</t>
+  </si>
+  <si>
+    <t>MO-LICHTTUSSENWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-LICHTTUSSENWAARDE-SO</t>
+  </si>
+  <si>
+    <t>LICHT_CONTOUR_INTERVENTIEWAARDE</t>
+  </si>
+  <si>
+    <t>MO-LICHTINTERVENTIEWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-LICHTINTERVENTIEWAARDE-SO</t>
+  </si>
+  <si>
+    <t>STRALING_CONTOUR_INTERVENTIEWAARDE</t>
+  </si>
+  <si>
+    <t>MO-STRALINGINTERVENTIEWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-STRALINGINTERVENTIEWAARDE-SO</t>
+  </si>
+  <si>
+    <t>STRALING_CONTOUR_TUSSENWAARDE</t>
+  </si>
+  <si>
+    <t>MO-STRALINGTUSSENWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-STRALINGTUSSENWAARDE-SO</t>
+  </si>
+  <si>
+    <t>STRALING_CONTOUR_STREEFWAARDE</t>
+  </si>
+  <si>
+    <t>MO-STRALINGSTREEFWAARDE-SO</t>
+  </si>
+  <si>
+    <t>V-MO-STRALINGSTREEFWAARDE-SO</t>
+  </si>
+  <si>
     <t>ONDERZOEK</t>
   </si>
   <si>
@@ -487,6 +637,9 @@
     <t>TRILLING</t>
   </si>
   <si>
+    <t>ROUTE GEVAARLIJKE STOFFEN</t>
+  </si>
+  <si>
     <t>EXPLOSIEVEN</t>
   </si>
   <si>
@@ -545,159 +698,6 @@
   </si>
   <si>
     <t>220,20,5</t>
-  </si>
-  <si>
-    <t>GRONDWATER_CONTOUR</t>
-  </si>
-  <si>
-    <t>LUCHT_CONTOUR</t>
-  </si>
-  <si>
-    <t>TRILLING_CONTOUR</t>
-  </si>
-  <si>
-    <t>LICHT_CONTOUR</t>
-  </si>
-  <si>
-    <t>STRALING_CONTOUR</t>
-  </si>
-  <si>
-    <t>GRONDWATER_CONTOUR_INTERVENTIEWAARDE</t>
-  </si>
-  <si>
-    <t>MO-GRONDWATERINTERVENTIEWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-GRONDWATERINTERVENTIEWAARDE-SO</t>
-  </si>
-  <si>
-    <t>GRONDWATER_CONTOUR_TUSSENWAARDE</t>
-  </si>
-  <si>
-    <t>MO-GRONDWATERTUSSENWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-GRONDWATERTUSSENWAARDE-SO</t>
-  </si>
-  <si>
-    <t>GRONDWATER_CONTOUR_STREEFWAARDE</t>
-  </si>
-  <si>
-    <t>MO-GRONDWATERSTREEFWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-GRONDWATERSTREEFWAARDE-SO</t>
-  </si>
-  <si>
-    <t>LUCHT_CONTOUR_STREEFWAARDE</t>
-  </si>
-  <si>
-    <t>MO-LUCHTSTREEFWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-LUCHTSTREEFWAARDE-SO</t>
-  </si>
-  <si>
-    <t>LUCHT_CONTOUR_INTERVENTIEWAARDE</t>
-  </si>
-  <si>
-    <t>MO-LUCHTINTERVENTIEWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-LUCHTINTERVENTIEWAARDE-SO</t>
-  </si>
-  <si>
-    <t>LUCHT_CONTOUR_TUSSENWAARDE</t>
-  </si>
-  <si>
-    <t>MO-LUCHTTUSSENWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-LUCHTTUSSENWAARDE-SO</t>
-  </si>
-  <si>
-    <t>TRILLING_CONTOUR_STREEFWAARDE</t>
-  </si>
-  <si>
-    <t>MO-TRILLINGSTREEFWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-TRILLINGSTREEFWAARDE-SO</t>
-  </si>
-  <si>
-    <t>TRILLING_CONTOUR_INTERVENTIEWAARDE</t>
-  </si>
-  <si>
-    <t>MO-TRILLINGINTERVENTIEWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-TRILLINGINTERVENTIEWAARDE-SO</t>
-  </si>
-  <si>
-    <t>TRILLING_CONTOUR_TUSSENWAARDE</t>
-  </si>
-  <si>
-    <t>MO-TRILLINGTUSSENWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-TRILLINGTUSSENWAARDE-SO</t>
-  </si>
-  <si>
-    <t>LICHT_CONTOUR_STREEFWAARDE</t>
-  </si>
-  <si>
-    <t>MO-LICHTSTREEFWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-LICHTSTREEFWAARDE-SO</t>
-  </si>
-  <si>
-    <t>LICHT_CONTOUR_TUSSENWAARDE</t>
-  </si>
-  <si>
-    <t>MO-LICHTTUSSENWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-LICHTTUSSENWAARDE-SO</t>
-  </si>
-  <si>
-    <t>LICHT_CONTOUR_INTERVENTIEWAARDE</t>
-  </si>
-  <si>
-    <t>MO-LICHTINTERVENTIEWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-LICHTINTERVENTIEWAARDE-SO</t>
-  </si>
-  <si>
-    <t>STRALING_CONTOUR_INTERVENTIEWAARDE</t>
-  </si>
-  <si>
-    <t>MO-STRALINGINTERVENTIEWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-STRALINGINTERVENTIEWAARDE-SO</t>
-  </si>
-  <si>
-    <t>STRALING_CONTOUR_TUSSENWAARDE</t>
-  </si>
-  <si>
-    <t>MO-STRALINGTUSSENWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-STRALINGTUSSENWAARDE-SO</t>
-  </si>
-  <si>
-    <t>STRALING_CONTOUR_STREEFWAARDE</t>
-  </si>
-  <si>
-    <t>MO-STRALINGSTREEFWAARDE-SO</t>
-  </si>
-  <si>
-    <t>V-MO-STRALINGSTREEFWAARDE-SO</t>
-  </si>
-  <si>
-    <t>ROUTE GEVAARLIJKE STOFFEN</t>
   </si>
 </sst>
 </file>
@@ -1557,14 +1557,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388EB232-6447-4F7C-B316-69E45DE6ED4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2CFF6D-2FDE-477A-B1EB-3F1BFB682719}">
   <dimension ref="A1:AJ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="42" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="43.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1685,7 +1718,7 @@
         <v>1550</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -1712,7 +1745,7 @@
         <v>253</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
         <v>42</v>
@@ -1733,7 +1766,7 @@
         <v>253</v>
       </c>
       <c r="T2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s">
         <v>42</v>
@@ -1754,7 +1787,7 @@
         <v>253</v>
       </c>
       <c r="AA2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s">
         <v>42</v>
@@ -1775,7 +1808,7 @@
         <v>253</v>
       </c>
       <c r="AH2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
@@ -1786,7 +1819,7 @@
         <v>1554</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>1550</v>
@@ -1816,7 +1849,7 @@
         <v>253</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
         <v>42</v>
@@ -1837,7 +1870,7 @@
         <v>253</v>
       </c>
       <c r="T3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s">
         <v>42</v>
@@ -1858,7 +1891,7 @@
         <v>253</v>
       </c>
       <c r="AA3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s">
         <v>42</v>
@@ -1879,7 +1912,7 @@
         <v>253</v>
       </c>
       <c r="AH3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
@@ -1890,7 +1923,7 @@
         <v>1556</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>1550</v>
@@ -1920,7 +1953,7 @@
         <v>253</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
         <v>42</v>
@@ -1941,7 +1974,7 @@
         <v>253</v>
       </c>
       <c r="T4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s">
         <v>42</v>
@@ -1962,7 +1995,7 @@
         <v>253</v>
       </c>
       <c r="AA4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s">
         <v>42</v>
@@ -1983,7 +2016,7 @@
         <v>253</v>
       </c>
       <c r="AH4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
@@ -1994,7 +2027,7 @@
         <v>3124</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="D5">
         <v>1550</v>
@@ -2021,10 +2054,10 @@
         <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N5" t="s">
         <v>42</v>
@@ -2042,10 +2075,10 @@
         <v>90</v>
       </c>
       <c r="S5" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="T5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s">
         <v>42</v>
@@ -2063,10 +2096,10 @@
         <v>90</v>
       </c>
       <c r="Z5" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="AA5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s">
         <v>42</v>
@@ -2084,10 +2117,10 @@
         <v>90</v>
       </c>
       <c r="AG5" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="AH5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
@@ -2098,7 +2131,7 @@
         <v>1555</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>1550</v>
@@ -2128,7 +2161,7 @@
         <v>253</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s">
         <v>42</v>
@@ -2149,7 +2182,7 @@
         <v>253</v>
       </c>
       <c r="T6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s">
         <v>42</v>
@@ -2170,7 +2203,7 @@
         <v>253</v>
       </c>
       <c r="AA6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s">
         <v>42</v>
@@ -2191,7 +2224,7 @@
         <v>253</v>
       </c>
       <c r="AH6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
@@ -2202,7 +2235,7 @@
         <v>1558</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <v>1550</v>
@@ -2232,7 +2265,7 @@
         <v>253</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N7" t="s">
         <v>42</v>
@@ -2253,7 +2286,7 @@
         <v>253</v>
       </c>
       <c r="T7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s">
         <v>42</v>
@@ -2274,7 +2307,7 @@
         <v>253</v>
       </c>
       <c r="AA7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s">
         <v>42</v>
@@ -2295,7 +2328,7 @@
         <v>253</v>
       </c>
       <c r="AH7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
@@ -2306,7 +2339,7 @@
         <v>1557</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>1550</v>
@@ -2336,7 +2369,7 @@
         <v>253</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
         <v>42</v>
@@ -2357,7 +2390,7 @@
         <v>253</v>
       </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s">
         <v>42</v>
@@ -2378,7 +2411,7 @@
         <v>253</v>
       </c>
       <c r="AA8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s">
         <v>42</v>
@@ -2399,7 +2432,7 @@
         <v>253</v>
       </c>
       <c r="AH8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
@@ -2410,7 +2443,7 @@
         <v>1553</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>1550</v>
@@ -2440,7 +2473,7 @@
         <v>253</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s">
         <v>42</v>
@@ -2461,7 +2494,7 @@
         <v>253</v>
       </c>
       <c r="T9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s">
         <v>42</v>
@@ -2482,7 +2515,7 @@
         <v>253</v>
       </c>
       <c r="AA9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s">
         <v>42</v>
@@ -2503,7 +2536,7 @@
         <v>253</v>
       </c>
       <c r="AH9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
@@ -2514,7 +2547,7 @@
         <v>1551</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <v>1550</v>
@@ -2544,7 +2577,7 @@
         <v>253</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
         <v>42</v>
@@ -2565,7 +2598,7 @@
         <v>253</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s">
         <v>42</v>
@@ -2586,7 +2619,7 @@
         <v>253</v>
       </c>
       <c r="AA10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s">
         <v>42</v>
@@ -2607,7 +2640,7 @@
         <v>253</v>
       </c>
       <c r="AH10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
@@ -2618,7 +2651,7 @@
         <v>3125</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="D11">
         <v>1551</v>
@@ -2645,10 +2678,10 @@
         <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
         <v>42</v>
@@ -2666,10 +2699,10 @@
         <v>90</v>
       </c>
       <c r="S11" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s">
         <v>42</v>
@@ -2687,10 +2720,10 @@
         <v>90</v>
       </c>
       <c r="Z11" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="AA11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s">
         <v>42</v>
@@ -2708,10 +2741,10 @@
         <v>90</v>
       </c>
       <c r="AG11" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="AH11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.35">
@@ -2722,7 +2755,7 @@
         <v>3126</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="D12">
         <v>1551</v>
@@ -2749,10 +2782,10 @@
         <v>90</v>
       </c>
       <c r="L12" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s">
         <v>42</v>
@@ -2770,10 +2803,10 @@
         <v>90</v>
       </c>
       <c r="S12" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s">
         <v>42</v>
@@ -2791,10 +2824,10 @@
         <v>90</v>
       </c>
       <c r="Z12" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="AA12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s">
         <v>42</v>
@@ -2812,10 +2845,10 @@
         <v>90</v>
       </c>
       <c r="AG12" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="AH12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.35">
@@ -2826,7 +2859,7 @@
         <v>3127</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="D13">
         <v>1551</v>
@@ -2853,10 +2886,10 @@
         <v>90</v>
       </c>
       <c r="L13" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
         <v>42</v>
@@ -2874,10 +2907,10 @@
         <v>90</v>
       </c>
       <c r="S13" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="T13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s">
         <v>42</v>
@@ -2895,10 +2928,10 @@
         <v>90</v>
       </c>
       <c r="Z13" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="AA13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s">
         <v>42</v>
@@ -2916,10 +2949,10 @@
         <v>90</v>
       </c>
       <c r="AG13" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="AH13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.35">
@@ -2930,7 +2963,7 @@
         <v>3128</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="D14">
         <v>1551</v>
@@ -2957,10 +2990,10 @@
         <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s">
         <v>42</v>
@@ -2978,10 +3011,10 @@
         <v>90</v>
       </c>
       <c r="S14" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s">
         <v>42</v>
@@ -2999,10 +3032,10 @@
         <v>90</v>
       </c>
       <c r="Z14" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="AA14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s">
         <v>42</v>
@@ -3020,10 +3053,10 @@
         <v>90</v>
       </c>
       <c r="AG14" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="AH14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.35">
@@ -3034,7 +3067,7 @@
         <v>3129</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="D15">
         <v>1551</v>
@@ -3061,10 +3094,10 @@
         <v>90</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
         <v>42</v>
@@ -3082,10 +3115,10 @@
         <v>90</v>
       </c>
       <c r="S15" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="T15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s">
         <v>42</v>
@@ -3103,10 +3136,10 @@
         <v>90</v>
       </c>
       <c r="Z15" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="AA15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s">
         <v>42</v>
@@ -3124,10 +3157,10 @@
         <v>90</v>
       </c>
       <c r="AG15" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="AH15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.35">
@@ -3138,7 +3171,7 @@
         <v>1552</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <v>1550</v>
@@ -3168,7 +3201,7 @@
         <v>253</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N16" t="s">
         <v>42</v>
@@ -3189,7 +3222,7 @@
         <v>253</v>
       </c>
       <c r="T16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s">
         <v>42</v>
@@ -3210,7 +3243,7 @@
         <v>253</v>
       </c>
       <c r="AA16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s">
         <v>42</v>
@@ -3231,7 +3264,7 @@
         <v>253</v>
       </c>
       <c r="AH16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
@@ -3242,7 +3275,7 @@
         <v>3130</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="D17">
         <v>1552</v>
@@ -3269,10 +3302,10 @@
         <v>90</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>42</v>
@@ -3290,10 +3323,10 @@
         <v>90</v>
       </c>
       <c r="S17" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="T17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s">
         <v>42</v>
@@ -3311,10 +3344,10 @@
         <v>90</v>
       </c>
       <c r="Z17" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="AA17" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AB17" t="s">
         <v>42</v>
@@ -3332,10 +3365,10 @@
         <v>90</v>
       </c>
       <c r="AG17" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="AH17" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
@@ -3346,7 +3379,7 @@
         <v>3131</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D18">
         <v>1552</v>
@@ -3759,7 +3792,7 @@
         <v>1497</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D22">
         <v>1495</v>
@@ -3789,10 +3822,10 @@
         <v>253</v>
       </c>
       <c r="M22" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N22" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O22">
         <v>30</v>
@@ -3810,7 +3843,7 @@
         <v>253</v>
       </c>
       <c r="T22" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="U22" t="s">
         <v>42</v>
@@ -3831,7 +3864,7 @@
         <v>253</v>
       </c>
       <c r="AA22" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AB22" t="s">
         <v>42</v>
@@ -3852,7 +3885,7 @@
         <v>253</v>
       </c>
       <c r="AH22" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
@@ -3863,7 +3896,7 @@
         <v>1498</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D23">
         <v>1497</v>
@@ -3893,10 +3926,10 @@
         <v>253</v>
       </c>
       <c r="M23" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O23">
         <v>90</v>
@@ -3914,7 +3947,7 @@
         <v>253</v>
       </c>
       <c r="T23" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="U23" t="s">
         <v>42</v>
@@ -3935,7 +3968,7 @@
         <v>253</v>
       </c>
       <c r="AA23" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="AB23" t="s">
         <v>42</v>
@@ -3956,7 +3989,7 @@
         <v>253</v>
       </c>
       <c r="AH23" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
@@ -3967,7 +4000,7 @@
         <v>1500</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D24">
         <v>1497</v>
@@ -3997,10 +4030,10 @@
         <v>253</v>
       </c>
       <c r="M24" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="N24" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O24">
         <v>10</v>
@@ -4018,7 +4051,7 @@
         <v>253</v>
       </c>
       <c r="T24" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="U24" t="s">
         <v>42</v>
@@ -4039,7 +4072,7 @@
         <v>253</v>
       </c>
       <c r="AA24" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="AB24" t="s">
         <v>42</v>
@@ -4060,7 +4093,7 @@
         <v>253</v>
       </c>
       <c r="AH24" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
@@ -4071,7 +4104,7 @@
         <v>1499</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D25">
         <v>1497</v>
@@ -4101,10 +4134,10 @@
         <v>253</v>
       </c>
       <c r="M25" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="N25" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O25">
         <v>40</v>
@@ -4122,7 +4155,7 @@
         <v>253</v>
       </c>
       <c r="T25" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="U25" t="s">
         <v>42</v>
@@ -4143,7 +4176,7 @@
         <v>253</v>
       </c>
       <c r="AA25" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="AB25" t="s">
         <v>42</v>
@@ -4164,7 +4197,7 @@
         <v>253</v>
       </c>
       <c r="AH25" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
@@ -4487,7 +4520,7 @@
         <v>1501</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D29">
         <v>1495</v>
@@ -4517,7 +4550,7 @@
         <v>253</v>
       </c>
       <c r="M29" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N29" t="s">
         <v>42</v>
@@ -4538,7 +4571,7 @@
         <v>253</v>
       </c>
       <c r="T29" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="U29" t="s">
         <v>42</v>
@@ -4559,7 +4592,7 @@
         <v>253</v>
       </c>
       <c r="AA29" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AB29" t="s">
         <v>42</v>
@@ -4580,7 +4613,7 @@
         <v>253</v>
       </c>
       <c r="AH29" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
@@ -4591,7 +4624,7 @@
         <v>1503</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D30">
         <v>1501</v>
@@ -4695,7 +4728,7 @@
         <v>1505</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D31">
         <v>1501</v>
@@ -4799,7 +4832,7 @@
         <v>1504</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="D32">
         <v>1501</v>
@@ -4903,7 +4936,7 @@
         <v>1502</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D33">
         <v>1501</v>
@@ -5007,7 +5040,7 @@
         <v>1549</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
@@ -5034,7 +5067,7 @@
         <v>253</v>
       </c>
       <c r="M34" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="N34" t="s">
         <v>42</v>
@@ -5055,7 +5088,7 @@
         <v>253</v>
       </c>
       <c r="T34" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="U34" t="s">
         <v>42</v>
@@ -5076,7 +5109,7 @@
         <v>253</v>
       </c>
       <c r="AA34" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="AB34" t="s">
         <v>42</v>
@@ -5097,7 +5130,7 @@
         <v>253</v>
       </c>
       <c r="AH34" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
@@ -5108,7 +5141,7 @@
         <v>1529</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
@@ -5209,7 +5242,7 @@
         <v>1530</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D36">
         <v>1529</v>
@@ -5239,10 +5272,10 @@
         <v>253</v>
       </c>
       <c r="M36" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N36" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O36">
         <v>10</v>
@@ -5260,7 +5293,7 @@
         <v>253</v>
       </c>
       <c r="T36" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="U36" t="s">
         <v>42</v>
@@ -5281,7 +5314,7 @@
         <v>253</v>
       </c>
       <c r="AA36" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AB36" t="s">
         <v>42</v>
@@ -5302,7 +5335,7 @@
         <v>253</v>
       </c>
       <c r="AH36" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
@@ -5313,7 +5346,7 @@
         <v>1533</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D37">
         <v>1530</v>
@@ -5343,10 +5376,10 @@
         <v>253</v>
       </c>
       <c r="M37" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="N37" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O37">
         <v>10</v>
@@ -5364,7 +5397,7 @@
         <v>253</v>
       </c>
       <c r="T37" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="U37" t="s">
         <v>42</v>
@@ -5385,7 +5418,7 @@
         <v>253</v>
       </c>
       <c r="AA37" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="AB37" t="s">
         <v>42</v>
@@ -5406,7 +5439,7 @@
         <v>253</v>
       </c>
       <c r="AH37" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
@@ -5417,7 +5450,7 @@
         <v>1531</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D38">
         <v>1530</v>
@@ -5447,10 +5480,10 @@
         <v>253</v>
       </c>
       <c r="M38" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="N38" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O38">
         <v>90</v>
@@ -5468,7 +5501,7 @@
         <v>253</v>
       </c>
       <c r="T38" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="U38" t="s">
         <v>42</v>
@@ -5489,7 +5522,7 @@
         <v>253</v>
       </c>
       <c r="AA38" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="AB38" t="s">
         <v>42</v>
@@ -5510,7 +5543,7 @@
         <v>253</v>
       </c>
       <c r="AH38" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
@@ -5521,7 +5554,7 @@
         <v>1532</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D39">
         <v>1530</v>
@@ -5551,10 +5584,10 @@
         <v>253</v>
       </c>
       <c r="M39" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N39" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O39">
         <v>40</v>
@@ -5572,7 +5605,7 @@
         <v>253</v>
       </c>
       <c r="T39" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="U39" t="s">
         <v>42</v>
@@ -5593,7 +5626,7 @@
         <v>253</v>
       </c>
       <c r="AA39" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="AB39" t="s">
         <v>42</v>
@@ -5614,7 +5647,7 @@
         <v>253</v>
       </c>
       <c r="AH39" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
@@ -5625,7 +5658,7 @@
         <v>1544</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
@@ -5726,7 +5759,7 @@
         <v>1545</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D41">
         <v>1544</v>
@@ -5756,10 +5789,10 @@
         <v>253</v>
       </c>
       <c r="M41" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N41" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O41">
         <v>40</v>
@@ -5777,7 +5810,7 @@
         <v>253</v>
       </c>
       <c r="T41" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="U41" t="s">
         <v>42</v>
@@ -5798,7 +5831,7 @@
         <v>253</v>
       </c>
       <c r="AA41" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AB41" t="s">
         <v>42</v>
@@ -5819,7 +5852,7 @@
         <v>253</v>
       </c>
       <c r="AH41" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
@@ -5830,7 +5863,7 @@
         <v>1548</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D42">
         <v>1545</v>
@@ -5860,10 +5893,10 @@
         <v>253</v>
       </c>
       <c r="M42" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="N42" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O42">
         <v>10</v>
@@ -5881,7 +5914,7 @@
         <v>253</v>
       </c>
       <c r="T42" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="U42" t="s">
         <v>42</v>
@@ -5902,7 +5935,7 @@
         <v>253</v>
       </c>
       <c r="AA42" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="AB42" t="s">
         <v>42</v>
@@ -5923,7 +5956,7 @@
         <v>253</v>
       </c>
       <c r="AH42" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
@@ -5934,7 +5967,7 @@
         <v>1546</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D43">
         <v>1545</v>
@@ -5964,10 +5997,10 @@
         <v>253</v>
       </c>
       <c r="M43" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="N43" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O43">
         <v>90</v>
@@ -5985,7 +6018,7 @@
         <v>253</v>
       </c>
       <c r="T43" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="U43" t="s">
         <v>42</v>
@@ -6006,7 +6039,7 @@
         <v>253</v>
       </c>
       <c r="AA43" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="AB43" t="s">
         <v>42</v>
@@ -6027,7 +6060,7 @@
         <v>253</v>
       </c>
       <c r="AH43" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
@@ -6038,7 +6071,7 @@
         <v>1547</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D44">
         <v>1545</v>
@@ -6068,10 +6101,10 @@
         <v>253</v>
       </c>
       <c r="M44" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="N44" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O44">
         <v>40</v>
@@ -6089,7 +6122,7 @@
         <v>253</v>
       </c>
       <c r="T44" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="U44" t="s">
         <v>42</v>
@@ -6110,7 +6143,7 @@
         <v>253</v>
       </c>
       <c r="AA44" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="AB44" t="s">
         <v>42</v>
@@ -6131,7 +6164,7 @@
         <v>253</v>
       </c>
       <c r="AH44" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
@@ -6243,7 +6276,7 @@
         <v>1509</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="D46">
         <v>1506</v>
@@ -6273,7 +6306,28 @@
         <v>253</v>
       </c>
       <c r="M46" t="s">
-        <v>96</v>
+        <v>65</v>
+      </c>
+      <c r="N46" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46">
+        <v>150</v>
+      </c>
+      <c r="P46">
+        <v>152</v>
+      </c>
+      <c r="Q46">
+        <v>150</v>
+      </c>
+      <c r="R46">
+        <v>150</v>
+      </c>
+      <c r="S46">
+        <v>253</v>
+      </c>
+      <c r="T46" t="s">
+        <v>65</v>
       </c>
       <c r="U46" t="s">
         <v>42</v>
@@ -6294,7 +6348,7 @@
         <v>253</v>
       </c>
       <c r="AA46" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AB46" t="s">
         <v>42</v>
@@ -6315,7 +6369,7 @@
         <v>253</v>
       </c>
       <c r="AH46" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
@@ -6326,7 +6380,7 @@
         <v>1512</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="D47">
         <v>1509</v>
@@ -6356,7 +6410,28 @@
         <v>253</v>
       </c>
       <c r="M47" t="s">
-        <v>180</v>
+        <v>113</v>
+      </c>
+      <c r="N47" t="s">
+        <v>66</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+      <c r="P47">
+        <v>12</v>
+      </c>
+      <c r="Q47">
+        <v>10</v>
+      </c>
+      <c r="R47">
+        <v>10</v>
+      </c>
+      <c r="S47">
+        <v>253</v>
+      </c>
+      <c r="T47" t="s">
+        <v>113</v>
       </c>
       <c r="U47" t="s">
         <v>42</v>
@@ -6377,7 +6452,7 @@
         <v>253</v>
       </c>
       <c r="AA47" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="AB47" t="s">
         <v>42</v>
@@ -6398,7 +6473,7 @@
         <v>253</v>
       </c>
       <c r="AH47" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
@@ -6409,7 +6484,7 @@
         <v>1510</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D48">
         <v>1509</v>
@@ -6439,7 +6514,28 @@
         <v>253</v>
       </c>
       <c r="M48" t="s">
-        <v>186</v>
+        <v>119</v>
+      </c>
+      <c r="N48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O48">
+        <v>90</v>
+      </c>
+      <c r="P48">
+        <v>92</v>
+      </c>
+      <c r="Q48">
+        <v>90</v>
+      </c>
+      <c r="R48">
+        <v>90</v>
+      </c>
+      <c r="S48">
+        <v>253</v>
+      </c>
+      <c r="T48" t="s">
+        <v>119</v>
       </c>
       <c r="U48" t="s">
         <v>42</v>
@@ -6460,7 +6556,7 @@
         <v>253</v>
       </c>
       <c r="AA48" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="AB48" t="s">
         <v>42</v>
@@ -6481,7 +6577,7 @@
         <v>253</v>
       </c>
       <c r="AH48" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
@@ -6492,7 +6588,7 @@
         <v>1511</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="D49">
         <v>1509</v>
@@ -6522,7 +6618,28 @@
         <v>253</v>
       </c>
       <c r="M49" t="s">
-        <v>183</v>
+        <v>116</v>
+      </c>
+      <c r="N49" t="s">
+        <v>66</v>
+      </c>
+      <c r="O49">
+        <v>40</v>
+      </c>
+      <c r="P49">
+        <v>42</v>
+      </c>
+      <c r="Q49">
+        <v>40</v>
+      </c>
+      <c r="R49">
+        <v>40</v>
+      </c>
+      <c r="S49">
+        <v>253</v>
+      </c>
+      <c r="T49" t="s">
+        <v>116</v>
       </c>
       <c r="U49" t="s">
         <v>42</v>
@@ -6543,7 +6660,7 @@
         <v>253</v>
       </c>
       <c r="AA49" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="AB49" t="s">
         <v>42</v>
@@ -6564,7 +6681,7 @@
         <v>253</v>
       </c>
       <c r="AH49" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
@@ -6575,7 +6692,7 @@
         <v>1507</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D50">
         <v>1506</v>
@@ -6679,7 +6796,7 @@
         <v>1508</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D51">
         <v>1507</v>
@@ -6887,7 +7004,7 @@
         <v>3133</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D53">
         <v>3132</v>
@@ -6991,7 +7108,7 @@
         <v>3134</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D54">
         <v>3132</v>
@@ -7095,7 +7212,7 @@
         <v>3135</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D55">
         <v>3132</v>
@@ -7199,7 +7316,7 @@
         <v>3136</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D56">
         <v>3132</v>
@@ -7303,7 +7420,7 @@
         <v>1559</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E57" t="s">
         <v>38</v>
@@ -7404,7 +7521,7 @@
         <v>1561</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D58">
         <v>1559</v>
@@ -7508,7 +7625,7 @@
         <v>1565</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D59">
         <v>1559</v>
@@ -7612,7 +7729,7 @@
         <v>1564</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D60">
         <v>1559</v>
@@ -7716,7 +7833,7 @@
         <v>1562</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D61">
         <v>1559</v>
@@ -7820,7 +7937,7 @@
         <v>1566</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D62">
         <v>1559</v>
@@ -7924,7 +8041,7 @@
         <v>1563</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D63">
         <v>1559</v>
@@ -8028,7 +8145,7 @@
         <v>1567</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D64">
         <v>1559</v>
@@ -8132,7 +8249,7 @@
         <v>1560</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D65">
         <v>1559</v>
@@ -8236,7 +8353,7 @@
         <v>1568</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D66">
         <v>1559</v>
@@ -8340,7 +8457,7 @@
         <v>1569</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D67">
         <v>1568</v>
@@ -8444,7 +8561,7 @@
         <v>1519</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="E68" t="s">
         <v>38</v>
@@ -8545,7 +8662,7 @@
         <v>1520</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="D69">
         <v>1519</v>
@@ -8575,7 +8692,28 @@
         <v>253</v>
       </c>
       <c r="M69" t="s">
-        <v>96</v>
+        <v>65</v>
+      </c>
+      <c r="N69" t="s">
+        <v>66</v>
+      </c>
+      <c r="O69">
+        <v>130</v>
+      </c>
+      <c r="P69">
+        <v>132</v>
+      </c>
+      <c r="Q69">
+        <v>130</v>
+      </c>
+      <c r="R69">
+        <v>130</v>
+      </c>
+      <c r="S69">
+        <v>253</v>
+      </c>
+      <c r="T69" t="s">
+        <v>65</v>
       </c>
       <c r="U69" t="s">
         <v>42</v>
@@ -8596,7 +8734,7 @@
         <v>253</v>
       </c>
       <c r="AA69" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AB69" t="s">
         <v>42</v>
@@ -8617,7 +8755,7 @@
         <v>253</v>
       </c>
       <c r="AH69" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
@@ -8628,7 +8766,7 @@
         <v>1523</v>
       </c>
       <c r="C70" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="D70">
         <v>1520</v>
@@ -8658,7 +8796,28 @@
         <v>253</v>
       </c>
       <c r="M70" t="s">
-        <v>213</v>
+        <v>185</v>
+      </c>
+      <c r="N70" t="s">
+        <v>66</v>
+      </c>
+      <c r="O70">
+        <v>10</v>
+      </c>
+      <c r="P70">
+        <v>12</v>
+      </c>
+      <c r="Q70">
+        <v>10</v>
+      </c>
+      <c r="R70">
+        <v>10</v>
+      </c>
+      <c r="S70">
+        <v>253</v>
+      </c>
+      <c r="T70" t="s">
+        <v>185</v>
       </c>
       <c r="U70" t="s">
         <v>42</v>
@@ -8679,7 +8838,7 @@
         <v>253</v>
       </c>
       <c r="AA70" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="AB70" t="s">
         <v>42</v>
@@ -8700,7 +8859,7 @@
         <v>253</v>
       </c>
       <c r="AH70" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
@@ -8711,7 +8870,7 @@
         <v>1521</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="D71">
         <v>1520</v>
@@ -8741,7 +8900,28 @@
         <v>253</v>
       </c>
       <c r="M71" t="s">
-        <v>207</v>
+        <v>179</v>
+      </c>
+      <c r="N71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O71">
+        <v>90</v>
+      </c>
+      <c r="P71">
+        <v>92</v>
+      </c>
+      <c r="Q71">
+        <v>90</v>
+      </c>
+      <c r="R71">
+        <v>90</v>
+      </c>
+      <c r="S71">
+        <v>253</v>
+      </c>
+      <c r="T71" t="s">
+        <v>179</v>
       </c>
       <c r="U71" t="s">
         <v>42</v>
@@ -8762,7 +8942,7 @@
         <v>253</v>
       </c>
       <c r="AA71" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="AB71" t="s">
         <v>42</v>
@@ -8783,7 +8963,7 @@
         <v>253</v>
       </c>
       <c r="AH71" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
@@ -8794,7 +8974,7 @@
         <v>1522</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D72">
         <v>1520</v>
@@ -8824,7 +9004,28 @@
         <v>253</v>
       </c>
       <c r="M72" t="s">
-        <v>210</v>
+        <v>182</v>
+      </c>
+      <c r="N72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O72">
+        <v>40</v>
+      </c>
+      <c r="P72">
+        <v>42</v>
+      </c>
+      <c r="Q72">
+        <v>40</v>
+      </c>
+      <c r="R72">
+        <v>40</v>
+      </c>
+      <c r="S72">
+        <v>253</v>
+      </c>
+      <c r="T72" t="s">
+        <v>182</v>
       </c>
       <c r="U72" t="s">
         <v>42</v>
@@ -8845,7 +9046,7 @@
         <v>253</v>
       </c>
       <c r="AA72" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="AB72" t="s">
         <v>42</v>
@@ -8866,7 +9067,7 @@
         <v>253</v>
       </c>
       <c r="AH72" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
@@ -8978,7 +9179,7 @@
         <v>1476</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D74">
         <v>1475</v>
@@ -9082,7 +9283,7 @@
         <v>1524</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="E75" t="s">
         <v>38</v>
@@ -9183,7 +9384,7 @@
         <v>1525</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="D76">
         <v>1524</v>
@@ -9213,7 +9414,28 @@
         <v>253</v>
       </c>
       <c r="M76" t="s">
-        <v>96</v>
+        <v>65</v>
+      </c>
+      <c r="N76" t="s">
+        <v>66</v>
+      </c>
+      <c r="O76">
+        <v>7</v>
+      </c>
+      <c r="P76">
+        <v>7</v>
+      </c>
+      <c r="Q76">
+        <v>7</v>
+      </c>
+      <c r="R76">
+        <v>7</v>
+      </c>
+      <c r="S76">
+        <v>253</v>
+      </c>
+      <c r="T76" t="s">
+        <v>65</v>
       </c>
       <c r="U76" t="s">
         <v>42</v>
@@ -9234,7 +9456,7 @@
         <v>253</v>
       </c>
       <c r="AA76" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AB76" t="s">
         <v>42</v>
@@ -9255,7 +9477,7 @@
         <v>253</v>
       </c>
       <c r="AH76" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.35">
@@ -9266,7 +9488,7 @@
         <v>1528</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="D77">
         <v>1525</v>
@@ -9296,7 +9518,28 @@
         <v>253</v>
       </c>
       <c r="M77" t="s">
-        <v>192</v>
+        <v>127</v>
+      </c>
+      <c r="N77" t="s">
+        <v>66</v>
+      </c>
+      <c r="O77">
+        <v>10</v>
+      </c>
+      <c r="P77">
+        <v>12</v>
+      </c>
+      <c r="Q77">
+        <v>10</v>
+      </c>
+      <c r="R77">
+        <v>10</v>
+      </c>
+      <c r="S77">
+        <v>253</v>
+      </c>
+      <c r="T77" t="s">
+        <v>127</v>
       </c>
       <c r="U77" t="s">
         <v>42</v>
@@ -9317,7 +9560,7 @@
         <v>253</v>
       </c>
       <c r="AA77" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="AB77" t="s">
         <v>42</v>
@@ -9338,7 +9581,7 @@
         <v>253</v>
       </c>
       <c r="AH77" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.35">
@@ -9349,7 +9592,7 @@
         <v>1526</v>
       </c>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D78">
         <v>1525</v>
@@ -9379,7 +9622,28 @@
         <v>253</v>
       </c>
       <c r="M78" t="s">
-        <v>189</v>
+        <v>124</v>
+      </c>
+      <c r="N78" t="s">
+        <v>66</v>
+      </c>
+      <c r="O78">
+        <v>90</v>
+      </c>
+      <c r="P78">
+        <v>92</v>
+      </c>
+      <c r="Q78">
+        <v>90</v>
+      </c>
+      <c r="R78">
+        <v>90</v>
+      </c>
+      <c r="S78">
+        <v>253</v>
+      </c>
+      <c r="T78" t="s">
+        <v>124</v>
       </c>
       <c r="U78" t="s">
         <v>42</v>
@@ -9400,7 +9664,7 @@
         <v>253</v>
       </c>
       <c r="AA78" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="AB78" t="s">
         <v>42</v>
@@ -9421,7 +9685,7 @@
         <v>253</v>
       </c>
       <c r="AH78" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.35">
@@ -9432,7 +9696,7 @@
         <v>1527</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="D79">
         <v>1525</v>
@@ -9462,7 +9726,28 @@
         <v>253</v>
       </c>
       <c r="M79" t="s">
-        <v>195</v>
+        <v>130</v>
+      </c>
+      <c r="N79" t="s">
+        <v>66</v>
+      </c>
+      <c r="O79">
+        <v>40</v>
+      </c>
+      <c r="P79">
+        <v>42</v>
+      </c>
+      <c r="Q79">
+        <v>40</v>
+      </c>
+      <c r="R79">
+        <v>40</v>
+      </c>
+      <c r="S79">
+        <v>253</v>
+      </c>
+      <c r="T79" t="s">
+        <v>130</v>
       </c>
       <c r="U79" t="s">
         <v>42</v>
@@ -9483,7 +9768,7 @@
         <v>253</v>
       </c>
       <c r="AA79" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="AB79" t="s">
         <v>42</v>
@@ -9504,7 +9789,7 @@
         <v>253</v>
       </c>
       <c r="AH79" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.35">
@@ -9515,7 +9800,7 @@
         <v>1477</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
@@ -10136,7 +10421,7 @@
         <v>1493</v>
       </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D86">
         <v>1477</v>
@@ -10968,7 +11253,7 @@
         <v>3137</v>
       </c>
       <c r="C94" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
@@ -10996,6 +11281,69 @@
       </c>
       <c r="M94" t="s">
         <v>41</v>
+      </c>
+      <c r="N94" t="s">
+        <v>66</v>
+      </c>
+      <c r="O94">
+        <v>20</v>
+      </c>
+      <c r="P94">
+        <v>22</v>
+      </c>
+      <c r="Q94">
+        <v>20</v>
+      </c>
+      <c r="R94">
+        <v>20</v>
+      </c>
+      <c r="S94">
+        <v>253</v>
+      </c>
+      <c r="T94" t="s">
+        <v>41</v>
+      </c>
+      <c r="U94" t="s">
+        <v>66</v>
+      </c>
+      <c r="V94">
+        <v>20</v>
+      </c>
+      <c r="W94">
+        <v>22</v>
+      </c>
+      <c r="X94">
+        <v>20</v>
+      </c>
+      <c r="Y94">
+        <v>20</v>
+      </c>
+      <c r="Z94">
+        <v>253</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC94">
+        <v>20</v>
+      </c>
+      <c r="AD94">
+        <v>22</v>
+      </c>
+      <c r="AE94">
+        <v>20</v>
+      </c>
+      <c r="AF94">
+        <v>20</v>
+      </c>
+      <c r="AG94">
+        <v>253</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.35">
@@ -11006,7 +11354,7 @@
         <v>1570</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
@@ -11107,7 +11455,7 @@
         <v>1572</v>
       </c>
       <c r="C96" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D96">
         <v>1570</v>
@@ -11211,7 +11559,7 @@
         <v>1576</v>
       </c>
       <c r="C97" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D97">
         <v>1570</v>
@@ -11315,7 +11663,7 @@
         <v>1575</v>
       </c>
       <c r="C98" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D98">
         <v>1570</v>
@@ -11419,7 +11767,7 @@
         <v>1573</v>
       </c>
       <c r="C99" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D99">
         <v>1570</v>
@@ -11523,7 +11871,7 @@
         <v>1577</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D100">
         <v>1570</v>
@@ -11627,7 +11975,7 @@
         <v>1574</v>
       </c>
       <c r="C101" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D101">
         <v>1570</v>
@@ -11731,7 +12079,7 @@
         <v>1578</v>
       </c>
       <c r="C102" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D102">
         <v>1570</v>
@@ -11835,7 +12183,7 @@
         <v>1571</v>
       </c>
       <c r="C103" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D103">
         <v>1570</v>
@@ -11939,7 +12287,7 @@
         <v>1579</v>
       </c>
       <c r="C104" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D104">
         <v>1570</v>
@@ -12043,7 +12391,7 @@
         <v>1580</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D105">
         <v>1579</v>
@@ -12147,7 +12495,7 @@
         <v>1534</v>
       </c>
       <c r="C106" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
@@ -12248,7 +12596,7 @@
         <v>1535</v>
       </c>
       <c r="C107" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="D107">
         <v>1534</v>
@@ -12278,7 +12626,28 @@
         <v>253</v>
       </c>
       <c r="M107" t="s">
-        <v>96</v>
+        <v>65</v>
+      </c>
+      <c r="N107" t="s">
+        <v>66</v>
+      </c>
+      <c r="O107">
+        <v>190</v>
+      </c>
+      <c r="P107">
+        <v>192</v>
+      </c>
+      <c r="Q107">
+        <v>190</v>
+      </c>
+      <c r="R107">
+        <v>190</v>
+      </c>
+      <c r="S107">
+        <v>253</v>
+      </c>
+      <c r="T107" t="s">
+        <v>65</v>
       </c>
       <c r="U107" t="s">
         <v>42</v>
@@ -12299,7 +12668,7 @@
         <v>253</v>
       </c>
       <c r="AA107" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AB107" t="s">
         <v>42</v>
@@ -12320,7 +12689,7 @@
         <v>253</v>
       </c>
       <c r="AH107" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.35">
@@ -12331,7 +12700,7 @@
         <v>1538</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="D108">
         <v>1535</v>
@@ -12361,7 +12730,28 @@
         <v>253</v>
       </c>
       <c r="M108" t="s">
-        <v>216</v>
+        <v>188</v>
+      </c>
+      <c r="N108" t="s">
+        <v>66</v>
+      </c>
+      <c r="O108">
+        <v>10</v>
+      </c>
+      <c r="P108">
+        <v>12</v>
+      </c>
+      <c r="Q108">
+        <v>10</v>
+      </c>
+      <c r="R108">
+        <v>10</v>
+      </c>
+      <c r="S108">
+        <v>253</v>
+      </c>
+      <c r="T108" t="s">
+        <v>188</v>
       </c>
       <c r="U108" t="s">
         <v>42</v>
@@ -12382,7 +12772,7 @@
         <v>253</v>
       </c>
       <c r="AA108" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="AB108" t="s">
         <v>42</v>
@@ -12403,7 +12793,7 @@
         <v>253</v>
       </c>
       <c r="AH108" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.35">
@@ -12414,7 +12804,7 @@
         <v>1536</v>
       </c>
       <c r="C109" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="D109">
         <v>1535</v>
@@ -12444,7 +12834,28 @@
         <v>253</v>
       </c>
       <c r="M109" t="s">
-        <v>222</v>
+        <v>194</v>
+      </c>
+      <c r="N109" t="s">
+        <v>66</v>
+      </c>
+      <c r="O109">
+        <v>90</v>
+      </c>
+      <c r="P109">
+        <v>92</v>
+      </c>
+      <c r="Q109">
+        <v>90</v>
+      </c>
+      <c r="R109">
+        <v>90</v>
+      </c>
+      <c r="S109">
+        <v>253</v>
+      </c>
+      <c r="T109" t="s">
+        <v>194</v>
       </c>
       <c r="U109" t="s">
         <v>42</v>
@@ -12465,7 +12876,7 @@
         <v>253</v>
       </c>
       <c r="AA109" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="AB109" t="s">
         <v>42</v>
@@ -12486,7 +12897,7 @@
         <v>253</v>
       </c>
       <c r="AH109" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.35">
@@ -12497,7 +12908,7 @@
         <v>1537</v>
       </c>
       <c r="C110" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D110">
         <v>1535</v>
@@ -12527,7 +12938,28 @@
         <v>253</v>
       </c>
       <c r="M110" t="s">
-        <v>219</v>
+        <v>191</v>
+      </c>
+      <c r="N110" t="s">
+        <v>66</v>
+      </c>
+      <c r="O110">
+        <v>40</v>
+      </c>
+      <c r="P110">
+        <v>42</v>
+      </c>
+      <c r="Q110">
+        <v>40</v>
+      </c>
+      <c r="R110">
+        <v>40</v>
+      </c>
+      <c r="S110">
+        <v>253</v>
+      </c>
+      <c r="T110" t="s">
+        <v>191</v>
       </c>
       <c r="U110" t="s">
         <v>42</v>
@@ -12548,7 +12980,7 @@
         <v>253</v>
       </c>
       <c r="AA110" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="AB110" t="s">
         <v>42</v>
@@ -12569,7 +13001,7 @@
         <v>253</v>
       </c>
       <c r="AH110" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.35">
@@ -12580,7 +13012,7 @@
         <v>1539</v>
       </c>
       <c r="C111" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
@@ -12681,7 +13113,7 @@
         <v>1540</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="D112">
         <v>1539</v>
@@ -12711,7 +13143,28 @@
         <v>253</v>
       </c>
       <c r="M112" t="s">
-        <v>96</v>
+        <v>65</v>
+      </c>
+      <c r="N112" t="s">
+        <v>66</v>
+      </c>
+      <c r="O112">
+        <v>210</v>
+      </c>
+      <c r="P112">
+        <v>212</v>
+      </c>
+      <c r="Q112">
+        <v>210</v>
+      </c>
+      <c r="R112">
+        <v>210</v>
+      </c>
+      <c r="S112">
+        <v>253</v>
+      </c>
+      <c r="T112" t="s">
+        <v>65</v>
       </c>
       <c r="U112" t="s">
         <v>42</v>
@@ -12732,7 +13185,7 @@
         <v>253</v>
       </c>
       <c r="AA112" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AB112" t="s">
         <v>42</v>
@@ -12753,7 +13206,7 @@
         <v>253</v>
       </c>
       <c r="AH112" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.35">
@@ -12764,7 +13217,7 @@
         <v>1543</v>
       </c>
       <c r="C113" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="D113">
         <v>1540</v>
@@ -12794,7 +13247,28 @@
         <v>253</v>
       </c>
       <c r="M113" t="s">
-        <v>201</v>
+        <v>156</v>
+      </c>
+      <c r="N113" t="s">
+        <v>66</v>
+      </c>
+      <c r="O113">
+        <v>10</v>
+      </c>
+      <c r="P113">
+        <v>12</v>
+      </c>
+      <c r="Q113">
+        <v>10</v>
+      </c>
+      <c r="R113">
+        <v>10</v>
+      </c>
+      <c r="S113">
+        <v>253</v>
+      </c>
+      <c r="T113" t="s">
+        <v>156</v>
       </c>
       <c r="U113" t="s">
         <v>42</v>
@@ -12815,7 +13289,7 @@
         <v>253</v>
       </c>
       <c r="AA113" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="AB113" t="s">
         <v>42</v>
@@ -12836,7 +13310,7 @@
         <v>253</v>
       </c>
       <c r="AH113" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.35">
@@ -12847,7 +13321,7 @@
         <v>1541</v>
       </c>
       <c r="C114" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="D114">
         <v>1540</v>
@@ -12877,7 +13351,28 @@
         <v>253</v>
       </c>
       <c r="M114" t="s">
-        <v>198</v>
+        <v>153</v>
+      </c>
+      <c r="N114" t="s">
+        <v>66</v>
+      </c>
+      <c r="O114">
+        <v>90</v>
+      </c>
+      <c r="P114">
+        <v>92</v>
+      </c>
+      <c r="Q114">
+        <v>90</v>
+      </c>
+      <c r="R114">
+        <v>90</v>
+      </c>
+      <c r="S114">
+        <v>253</v>
+      </c>
+      <c r="T114" t="s">
+        <v>153</v>
       </c>
       <c r="U114" t="s">
         <v>42</v>
@@ -12898,7 +13393,7 @@
         <v>253</v>
       </c>
       <c r="AA114" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="AB114" t="s">
         <v>42</v>
@@ -12919,7 +13414,7 @@
         <v>253</v>
       </c>
       <c r="AH114" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.35">
@@ -12930,7 +13425,7 @@
         <v>1542</v>
       </c>
       <c r="C115" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="D115">
         <v>1540</v>
@@ -12960,7 +13455,28 @@
         <v>253</v>
       </c>
       <c r="M115" t="s">
-        <v>204</v>
+        <v>159</v>
+      </c>
+      <c r="N115" t="s">
+        <v>66</v>
+      </c>
+      <c r="O115">
+        <v>40</v>
+      </c>
+      <c r="P115">
+        <v>42</v>
+      </c>
+      <c r="Q115">
+        <v>40</v>
+      </c>
+      <c r="R115">
+        <v>40</v>
+      </c>
+      <c r="S115">
+        <v>253</v>
+      </c>
+      <c r="T115" t="s">
+        <v>159</v>
       </c>
       <c r="U115" t="s">
         <v>42</v>
@@ -12981,7 +13497,7 @@
         <v>253</v>
       </c>
       <c r="AA115" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="AB115" t="s">
         <v>42</v>
@@ -13002,7 +13518,7 @@
         <v>253</v>
       </c>
       <c r="AH115" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.35">
@@ -13013,7 +13529,7 @@
         <v>1513</v>
       </c>
       <c r="C116" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
@@ -13114,7 +13630,7 @@
         <v>1514</v>
       </c>
       <c r="C117" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D117">
         <v>1513</v>
@@ -13218,7 +13734,7 @@
         <v>1515</v>
       </c>
       <c r="C118" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D118">
         <v>1514</v>
@@ -13322,7 +13838,7 @@
         <v>1516</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D119">
         <v>1514</v>
@@ -13426,7 +13942,7 @@
         <v>1517</v>
       </c>
       <c r="C120" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D120">
         <v>1514</v>
@@ -13530,7 +14046,7 @@
         <v>1518</v>
       </c>
       <c r="C121" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D121">
         <v>1514</v>
@@ -13627,7 +14143,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ121" xr:uid="{388EB232-6447-4F7C-B316-69E45DE6ED4B}">
+  <autoFilter ref="A1:AJ121" xr:uid="{9F2CFF6D-2FDE-477A-B1EB-3F1BFB682719}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ121">
       <sortCondition ref="C1:C121"/>
     </sortState>
